--- a/va_facility_data_2025-02-20/Merced VA Clinic - Facility Data.xlsx"; filename*=UTF-8''Merced%20VA%20Clinic%20-%20Facility%20Data.xlsx
+++ b/va_facility_data_2025-02-20/Merced VA Clinic - Facility Data.xlsx"; filename*=UTF-8''Merced%20VA%20Clinic%20-%20Facility%20Data.xlsx
@@ -2,9 +2,9 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <x:workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <x:sheets>
-    <x:sheet name="Wait Times" sheetId="1" r:id="Rcc08e9f842134784a0bfbe53ddee8838"/>
-    <x:sheet name="Satisfaction with Care" sheetId="2" r:id="R0ddaa9e69d984202b5e3618f7fe2a483"/>
-    <x:sheet name="Outpatient Score" sheetId="3" r:id="R7592fcf283a6453c96ead75791cd80ce"/>
+    <x:sheet name="Wait Times" sheetId="1" r:id="R55889e8db6ae48039c97ccbd3bc49ea2"/>
+    <x:sheet name="Satisfaction with Care" sheetId="2" r:id="R8903399980194407ba6cae5ca0232034"/>
+    <x:sheet name="Outpatient Score" sheetId="3" r:id="R3cb2f1ad9c91469ea58298d1d4112913"/>
   </x:sheets>
 </x:workbook>
 </file>
